--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_DateBeforeDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
   <si>
     <t>ModuleName</t>
   </si>
@@ -237,67 +237,58 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
+    <t>04-05-2024</t>
+  </si>
+  <si>
+    <t>04-05-2024 05:29:49 PM</t>
+  </si>
+  <si>
+    <t>ET163</t>
+  </si>
+  <si>
+    <t>ET164</t>
+  </si>
+  <si>
+    <t>tskNT_ExecuteTask_DateBeforeDays</t>
+  </si>
+  <si>
+    <t>ET197</t>
+  </si>
+  <si>
+    <t>11-05-2024</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>08-05-2024 10:41:39 AM</t>
+  </si>
+  <si>
+    <t>08-05-2024 10:46:03 AM</t>
+  </si>
+  <si>
+    <t>TimeHour</t>
+  </si>
+  <si>
+    <t>TimeMinutes</t>
+  </si>
+  <si>
+    <t>TimeSeconds</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:23:12 PM</t>
-  </si>
-  <si>
-    <t>ET162</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:29:49 PM</t>
-  </si>
-  <si>
-    <t>ET163</t>
-  </si>
-  <si>
-    <t>ET164</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_DateBeforeDays</t>
-  </si>
-  <si>
-    <t>10-05-2024</t>
-  </si>
-  <si>
-    <t>07-05-2024 04:05:36 PM</t>
-  </si>
-  <si>
-    <t>ET197</t>
-  </si>
-  <si>
-    <t>07-05-2024 04:17:41 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 04:48:40 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 05:11:12 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 05:29:23 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 05:41:24 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 05:47:44 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 05:57:06 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 06:15:51 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 06:24:46 PM</t>
-  </si>
-  <si>
-    <t>07-05-2024 06:29:12 PM</t>
+    <t>08-05-2024 11:36:56 AM</t>
+  </si>
+  <si>
+    <t>05:00:00 AM</t>
+  </si>
+  <si>
+    <t>08-05-2024 11:41:20 AM</t>
   </si>
 </sst>
 </file>
@@ -343,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -360,6 +351,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -643,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,7 +670,7 @@
     <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +770,17 @@
       <c r="AG1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -811,7 +812,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -820,10 +821,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -859,7 +860,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -870,14 +871,20 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="AH2" t="s" s="1">
-        <v>79</v>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="1">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,7 +926,7 @@
     <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,8 +1026,17 @@
       <c r="AG1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1068,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1061,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1100,7 +1116,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1114,10 +1130,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="AH2" t="s" s="0">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,7 +1171,7 @@
     <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1271,17 @@
       <c r="AG1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1291,10 +1322,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1330,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1344,7 +1375,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,9 +1413,12 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
     <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1518,17 @@
       <c r="AG1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1508,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1517,7 +1569,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>70</v>
@@ -1556,7 +1608,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1570,7 +1622,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_DateBeforeDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
   <si>
     <t>ModuleName</t>
   </si>
@@ -249,24 +249,6 @@
     <t>ET164</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_DateBeforeDays</t>
-  </si>
-  <si>
-    <t>ET197</t>
-  </si>
-  <si>
-    <t>11-05-2024</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>08-05-2024 10:41:39 AM</t>
-  </si>
-  <si>
-    <t>08-05-2024 10:46:03 AM</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -279,23 +261,28 @@
     <t>00</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>08-05-2024 11:36:56 AM</t>
-  </si>
-  <si>
-    <t>05:00:00 AM</t>
-  </si>
-  <si>
-    <t>08-05-2024 11:41:20 AM</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21-07-2024</t>
+  </si>
+  <si>
+    <t>21-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2653</t>
+  </si>
+  <si>
+    <t>ET_DateBeforeDays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,42 +622,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
-    <col min="10" max="16" style="1" width="9.1796875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.1796875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
-    <col min="34" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,16 +758,16 @@
         <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -811,8 +798,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>77</v>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -820,11 +807,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>87</v>
+      <c r="N2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -860,7 +847,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -872,19 +859,19 @@
         <v>50</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="1">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -901,29 +888,29 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1027,13 +1014,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1067,8 +1054,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>77</v>
+      <c r="K2" t="s">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1076,11 +1063,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>87</v>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1116,7 +1103,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1129,17 +1116,17 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="0">
+      <c r="AH2">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1156,19 +1143,19 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1272,13 +1259,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
@@ -1312,8 +1299,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>77</v>
+      <c r="K2" t="s">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1321,11 +1308,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>87</v>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1361,7 +1348,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1374,17 +1361,17 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="0">
+      <c r="AH2">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1400,22 +1387,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="11.7265625"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1519,13 +1506,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1559,7 +1546,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>71</v>
       </c>
       <c r="L2" s="1">
@@ -1568,10 +1555,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1608,7 +1595,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1621,17 +1608,17 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="0">
+      <c r="AH2">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_DateBeforeDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_DateBeforeDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -277,12 +277,22 @@
   </si>
   <si>
     <t>ET_DateBeforeDays</t>
+  </si>
+  <si>
+    <t>16-01-2025</t>
+  </si>
+  <si>
+    <t>16-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,33 +638,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -798,8 +808,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
+      <c r="K2" t="s" s="1">
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -807,11 +817,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>82</v>
+      <c r="N2" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -870,7 +880,7 @@
       <c r="AJ2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>79</v>
       </c>
     </row>
@@ -893,24 +903,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1054,8 +1064,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>80</v>
+      <c r="K2" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1063,11 +1073,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
+      <c r="N2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1116,10 +1126,10 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
@@ -1148,14 +1158,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1299,7 +1309,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>80</v>
       </c>
       <c r="L2" s="1">
@@ -1308,10 +1318,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1361,10 +1371,10 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
@@ -1393,16 +1403,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1546,7 +1556,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="L2" s="1">
@@ -1555,10 +1565,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1608,10 +1618,10 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>5</v>
       </c>
       <c r="AI2" s="6" t="s">
